--- a/docs/SuperKey Examples.xlsx
+++ b/docs/SuperKey Examples.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Table Students</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Student_ID</t>
   </si>
   <si>
+    <t>Stu_Number</t>
+  </si>
+  <si>
     <t>Stu_Name</t>
   </si>
   <si>
@@ -29,6 +32,12 @@
     <t>Major</t>
   </si>
   <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
     <t>Jorge</t>
   </si>
   <si>
@@ -38,6 +47,9 @@
     <t>Computer Science</t>
   </si>
   <si>
+    <t>Data Science</t>
+  </si>
+  <si>
     <t>Saul</t>
   </si>
   <si>
@@ -47,6 +59,9 @@
     <t>Psychology</t>
   </si>
   <si>
+    <t>Clinical</t>
+  </si>
+  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -62,6 +77,9 @@
     <t>Medicine</t>
   </si>
   <si>
+    <t>Surgery</t>
+  </si>
+  <si>
     <t>Lilian</t>
   </si>
   <si>
@@ -71,6 +89,9 @@
     <t>Mathematics</t>
   </si>
   <si>
+    <t>Physics</t>
+  </si>
+  <si>
     <t>Sherry</t>
   </si>
   <si>
@@ -81,12 +102,70 @@
   </si>
   <si>
     <t>Perez</t>
+  </si>
+  <si>
+    <t>Game Design</t>
+  </si>
+  <si>
+    <t>Super Key</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>Candidate Key</t>
+  </si>
+  <si>
+    <t>Table Market</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
+  </si>
+  <si>
+    <t>Pro_MarketCode</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Weight (lbs)</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Eggs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -114,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -123,6 +202,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,103 +450,423 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="1">
         <v>221234.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="1">
+        <v>1.1279845E7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>36865.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1">
         <v>221235.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="1">
+        <v>1.1268738E7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>36715.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>221236.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="1">
+        <v>1.1249893E7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>36531.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1">
         <v>221237.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="1">
+        <v>1.1895476E7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3">
+        <v>36568.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1">
         <v>221238.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" s="1">
+        <v>1.1236875E7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>36857.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1">
         <v>221239.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+      <c r="C8" s="1">
+        <v>1.1279938E7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <v>36807.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1">
         <v>221240.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
+      <c r="C9" s="1">
+        <v>1.1678543E7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>36726.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:C14" si="1">B3</f>
+        <v>221234</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>11279845</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:I20" si="3">B3</f>
+        <v>221234</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:C15" si="2">B4</f>
+        <v>221235</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>11268738</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>221235</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:C16" si="4">B5</f>
+        <v>221236</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>11249893</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>221236</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:C17" si="5">B6</f>
+        <v>221237</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="5"/>
+        <v>11895476</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>221237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:C18" si="6">B7</f>
+        <v>221238</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="6"/>
+        <v>11236875</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>221238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:C19" si="7">B8</f>
+        <v>221239</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="7"/>
+        <v>11279938</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>221239</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:C20" si="8">B9</f>
+        <v>221240</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="8"/>
+        <v>11678543</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>221240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1">
+        <f t="shared" ref="B25:C25" si="9">B3</f>
+        <v>221234</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="9"/>
+        <v>11279845</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:C26" si="10">B4</f>
+        <v>221235</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="10"/>
+        <v>11268738</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:C27" si="11">B5</f>
+        <v>221236</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="11"/>
+        <v>11249893</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:C28" si="12">B6</f>
+        <v>221237</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="12"/>
+        <v>11895476</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:C29" si="13">B7</f>
+        <v>221238</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="13"/>
+        <v>11236875</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:C30" si="14">B8</f>
+        <v>221239</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="14"/>
+        <v>11279938</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1">
+        <f t="shared" ref="B31:C31" si="15">B9</f>
+        <v>221240</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="15"/>
+        <v>11678543</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +883,418 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1">
+        <v>221234.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1279845E7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="1">
+        <v>221235.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.1268738E7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>221236.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1249893E7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50.25</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>221237.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.1895476E7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1">
+        <v>221238.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1236875E7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>233.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>28.75</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1">
+        <v>221239.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.1279938E7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18.75</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <v>221240.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.1678543E7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26.55</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:D14" si="1">B3</f>
+        <v>221234</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>11279845</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sugar</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H20" si="3">B3</f>
+        <v>221234</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:D15" si="2">B4</f>
+        <v>221235</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>11268738</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Salt</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>221235</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:D16" si="4">B5</f>
+        <v>221236</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>11249893</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Cookies</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>221236</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:D17" si="5">B6</f>
+        <v>221237</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="5"/>
+        <v>11895476</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Socks</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>221237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:D18" si="6">B7</f>
+        <v>221238</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="6"/>
+        <v>11236875</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Juice</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>221238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:D19" si="7">B8</f>
+        <v>221239</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="7"/>
+        <v>11279938</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Milk</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>221239</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:D20" si="8">B9</f>
+        <v>221240</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="8"/>
+        <v>11678543</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Eggs</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>221240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1">
+        <f t="shared" ref="B25:C25" si="9">B3</f>
+        <v>221234</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="9"/>
+        <v>11279845</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:C26" si="10">B4</f>
+        <v>221235</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="10"/>
+        <v>11268738</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:C27" si="11">B5</f>
+        <v>221236</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="11"/>
+        <v>11249893</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:C28" si="12">B6</f>
+        <v>221237</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="12"/>
+        <v>11895476</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:C29" si="13">B7</f>
+        <v>221238</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="13"/>
+        <v>11236875</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:C30" si="14">B8</f>
+        <v>221239</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="14"/>
+        <v>11279938</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1">
+        <f t="shared" ref="B31:C31" si="15">B9</f>
+        <v>221240</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="15"/>
+        <v>11678543</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/SuperKey Examples.xlsx
+++ b/docs/SuperKey Examples.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Example1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Example2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="DB" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Table Students</t>
   </si>
@@ -156,6 +157,81 @@
   </si>
   <si>
     <t>Eggs</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>ID_TURN</t>
+  </si>
+  <si>
+    <t>BODYPART_NUM</t>
+  </si>
+  <si>
+    <t>BODY_PART</t>
+  </si>
+  <si>
+    <t>"/ \\"</t>
+  </si>
+  <si>
+    <t>"/"</t>
+  </si>
+  <si>
+    <t>" |"</t>
+  </si>
+  <si>
+    <t>"/|\\"</t>
+  </si>
+  <si>
+    <t>"/|"</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>GUESSER</t>
+  </si>
+  <si>
+    <t>GIVER</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>" O"</t>
   </si>
 </sst>
 </file>
@@ -166,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -178,22 +254,91 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF351C75"/>
+        <bgColor rgb="FF351C75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -209,6 +354,39 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -223,6 +401,194 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1000125" cy="2647950"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1730900" y="776975"/>
+          <a:ext cx="983400" cy="2625900"/>
+          <a:chOff x="1730900" y="776975"/>
+          <a:chExt cx="983400" cy="2625900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1730900" y="1671875"/>
+            <a:ext cx="983400" cy="900000"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="38761D"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" rot="10800000">
+            <a:off x="2222600" y="776975"/>
+            <a:ext cx="9900" cy="894900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2212700" y="2571875"/>
+            <a:ext cx="9900" cy="831000"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1966925" y="1957075"/>
+            <a:ext cx="747300" cy="400200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>lay</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,6 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1295,6 +1662,382 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="14.75"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>